--- a/Data/aearep-403/candidatepackages.xlsx
+++ b/Data/aearep-403/candidatepackages.xlsx
@@ -127,10 +127,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="C3">
-        <v>0.23010610044002533</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D3"/>
     </row>
@@ -139,10 +139,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1472</v>
+        <v>1306</v>
       </c>
       <c r="C4">
-        <v>0.48806366324424744</v>
+        <v>0.43173554539680481</v>
       </c>
       <c r="D4"/>
     </row>
